--- a/filesearch/Document/测试/网站与关键字管理界面.xlsx
+++ b/filesearch/Document/测试/网站与关键字管理界面.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,9 +27,6 @@
   <si>
     <t>改正与否</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
   </si>
   <si>
     <t>描述</t>
@@ -1035,7 +1032,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1048,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1059,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
@@ -1070,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27">
@@ -1081,10 +1078,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40.5">
@@ -1092,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5">
@@ -1103,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1114,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="40.5">
@@ -1125,10 +1122,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.5">
@@ -1136,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1215,7 +1212,7 @@
   <sheetData>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
